--- a/Others/通话记录.xlsx
+++ b/Others/通话记录.xlsx
@@ -529,7 +529,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>

--- a/Others/通话记录.xlsx
+++ b/Others/通话记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,14 @@
   </si>
   <si>
     <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -594,6 +602,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42381.966944444444</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Others/通话记录.xlsx
+++ b/Others/通话记录.xlsx
@@ -14,33 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通话时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1小时7分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1小时32分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -56,7 +32,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23分</t>
+    <t>通话时长/分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,74 +144,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -255,7 +163,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -537,7 +445,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -553,42 +461,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>42360.861851851849</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>42361.906770833331</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
+      <c r="C3" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>42362.962731481479</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
+      <c r="C4" s="6">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42363.01971064815</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
+      <c r="C5" s="5">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -596,10 +504,10 @@
         <v>42376.932743055557</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,10 +515,10 @@
         <v>42381.966944444444</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Others/通话记录.xlsx
+++ b/Others/通话记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,10 @@
   </si>
   <si>
     <t>通话时长/分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器、进程以及快乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,6 +148,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -163,7 +235,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -442,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -521,6 +593,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42417.985648148147</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
